--- a/data/trans_dic/P52_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P52_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado su situación económica desde la primera encuesta</t>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>67,37%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>61,43%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>7,27%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,12</t>
+          <t>0,0; 17,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,14; 85,95</t>
+          <t>10,24; 40,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,52; 56,95</t>
+          <t>0,0; 17,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 68,15</t>
+          <t>3,63; 26,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,74; 73,0</t>
+          <t>10,22; 35,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,14; 63,51</t>
+          <t>2,19; 19,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 54,71</t>
+          <t>2,76; 18,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,39; 74,76</t>
+          <t>12,8; 33,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,8; 52,76</t>
+          <t>2,93; 15,19</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,62%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>20,01%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,66; 79,4</t>
+          <t>4,99; 27,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,02; 74,03</t>
+          <t>3,35; 22,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,03; 80,08</t>
+          <t>4,16; 62,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,96; 59,1</t>
+          <t>6,84; 25,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,18; 58,55</t>
+          <t>7,99; 27,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,44; 58,49</t>
+          <t>6,82; 25,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,69; 60,81</t>
+          <t>8,14; 22,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 60,87</t>
+          <t>7,27; 20,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,8; 64,17</t>
+          <t>8,74; 43,46</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62,45%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>53,15%</t>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,83; 80,97</t>
+          <t>1,79; 18,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,68; 84,0</t>
+          <t>6,84; 28,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,9; 71,22</t>
+          <t>6,02; 27,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,86; 78,39</t>
+          <t>3,52; 13,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,34; 82,4</t>
+          <t>10,02; 24,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,08; 78,33</t>
+          <t>7,81; 20,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,2; 75,65</t>
+          <t>4,16; 13,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,74; 80,04</t>
+          <t>11,06; 22,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,91; 67,84</t>
+          <t>8,08; 19,83</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,69%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>10,61%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,96; 79,61</t>
+          <t>3,63; 16,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,62; 77,76</t>
+          <t>3,78; 18,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 60,91</t>
+          <t>1,27; 11,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,26; 78,87</t>
+          <t>4,84; 16,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,04; 74,76</t>
+          <t>9,54; 23,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,59; 77,41</t>
+          <t>9,17; 22,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,26; 72,72</t>
+          <t>5,23; 13,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,63; 71,83</t>
+          <t>8,21; 18,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,17; 64,65</t>
+          <t>6,64; 15,89</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,65%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>82,68%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>71,4%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>79,24%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57,02%</t>
+          <t>10,12%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,18; 92,9</t>
+          <t>5,01; 21,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,67; 90,94</t>
+          <t>5,87; 23,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,79; 82,65</t>
+          <t>5,98; 22,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,08; 92,73</t>
+          <t>3,31; 18,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,89; 95,17</t>
+          <t>5,68; 26,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,83; 77,7</t>
+          <t>1,96; 17,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,44; 85,71</t>
+          <t>5,75; 17,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,78; 90,63</t>
+          <t>7,85; 19,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,57; 74,28</t>
+          <t>5,41; 16,87</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 100,0</t>
+          <t>0,0; 19,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,32; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 75,97</t>
+          <t>0,0; 16,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,2; 79,17</t>
+          <t>0,0; 11,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,24; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,67; 78,41</t>
+          <t>1,48; 12,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,2; 79,17</t>
+          <t>0,0; 6,61</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,81; 67,04</t>
+          <t>5,61; 11,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>55,33; 73,59</t>
+          <t>8,72; 16,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,76; 57,2</t>
+          <t>6,58; 21,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>45,32; 63,99</t>
+          <t>6,09; 12,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,71; 64,13</t>
+          <t>12,09; 19,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,58; 58,56</t>
+          <t>8,29; 14,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47,74; 62,91</t>
+          <t>6,56; 10,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>52,6; 66,39</t>
+          <t>11,48; 16,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,0; 54,56</t>
+          <t>8,77; 17,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3699</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23209</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7839</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15501</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25024</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10351</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19200</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48234</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18190</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18704</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10824; 42425</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22292</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4869; 35986</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12275; 42330</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2680; 24457</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6647; 45340</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28903; 74845</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7321; 37990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22910</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14815</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37190</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24990</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20041</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18953</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47900</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34856</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56142</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8420; 45919</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4801; 32651</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6416; 96169</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11301; 41658</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10126; 34705</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8616; 32110</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27173; 75155</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19632; 55910</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24518; 121943</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13361</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21028</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19279</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19418</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35317</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26217</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32778</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>56345</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45496</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2908; 30692</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9197; 37735</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8285; 37643</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9307; 35232</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20982; 51567</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15659; 42006</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17719; 55485</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38014; 79021</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27326; 67050</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14105</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14353</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7749</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20941</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28758</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27132</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35046</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43111</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34881</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6776; 30016</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6093; 29067</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1981; 17756</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10560; 36295</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17735; 43267</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15821; 38703</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>21192; 55190</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28484; 63056</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21808; 52210</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18685</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14763</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10272</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12951</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7087</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28958</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29974</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21851</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7879; 33811</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7746; 30722</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7364; 27485</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3849; 21600</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5325; 24448</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1820; 16187</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15727; 47748</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17740; 44852</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11680; 36409</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6574</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11664</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17024</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17171</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13100</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2857; 23453</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13259</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>72760</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>95518</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>86820</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>91122</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>128666</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>93515</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>163882</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>224184</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>180335</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>50009; 106902</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>66635; 127380</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>51886; 173448</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>63001; 126611</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>101668; 162233</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>68363; 118155</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>126290; 210184</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>184295; 270637</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>141512; 285836</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>